--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_11e3\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A151534F-EA84-47B4-BC44-D4767549FF98}"/>
+  <xr:revisionPtr revIDLastSave="1056" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3F8631F-ABCB-4ADC-8AA4-85A24195265E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Booking" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="603">
   <si>
     <t>Feature</t>
   </si>
@@ -1480,7 +1480,7 @@
     <t>formState.passengers.ADT-0.name</t>
   </si>
   <si>
-    <t>Naik</t>
+    <t>Mahesh</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -1492,7 +1492,7 @@
     <t>formState.passengers.ADT-0.surname</t>
   </si>
   <si>
-    <t>Mude</t>
+    <t>Pillalamarri</t>
   </si>
   <si>
     <t>ContinueButton</t>
@@ -1622,6 +1622,18 @@
   </si>
   <si>
     <t>Payment Success Dailog Box</t>
+  </si>
+  <si>
+    <t>PNR Number</t>
+  </si>
+  <si>
+    <t>When I want to take a note of [$] that has been generated</t>
+  </si>
+  <si>
+    <t>//div[@class='booking-details__reservation-number']/span</t>
+  </si>
+  <si>
+    <t>GETTEXT</t>
   </si>
   <si>
     <t>When I want to book a [$] ticket</t>
@@ -3070,7 +3082,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>10</v>
@@ -3090,16 +3102,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -3116,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -3139,7 +3151,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>44</v>
@@ -3162,7 +3174,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>485</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>12</v>
@@ -3208,13 +3220,13 @@
         <v>52</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -3225,19 +3237,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="23" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D9" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -3248,19 +3260,19 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>12</v>
@@ -3271,19 +3283,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -3294,19 +3306,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F12" t="s">
         <v>449</v>
@@ -3317,19 +3329,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -3340,10 +3352,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C14" t="s">
         <v>447</v>
@@ -3352,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
         <v>449</v>
@@ -3363,22 +3375,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C15" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F15" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -3386,22 +3398,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C16" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F16" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -3409,22 +3421,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B17" t="s">
         <v>492</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -3432,22 +3444,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C18" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F18" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -3545,7 +3557,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>12</v>
@@ -3591,7 +3603,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>12</v>
@@ -3689,7 +3701,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3720,10 +3732,10 @@
         <v>84</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>10</v>
@@ -3743,7 +3755,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>67</v>
@@ -3752,7 +3764,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>70</v>
@@ -3766,10 +3778,10 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C12" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -3789,10 +3801,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>68</v>
@@ -3855,19 +3867,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B16" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C16" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -3927,50 +3939,50 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3978,42 +3990,42 @@
         <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5535,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6422,10 +6434,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B83" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8511,6 +8523,26 @@
       </c>
       <c r="G101" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.5">
+      <c r="B102" t="s">
+        <v>525</v>
+      </c>
+      <c r="C102" t="s">
+        <v>526</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>527</v>
+      </c>
+      <c r="F102" t="s">
+        <v>528</v>
+      </c>
+      <c r="G102" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_11e3\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1056" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3F8631F-ABCB-4ADC-8AA4-85A24195265E}"/>
+  <xr:revisionPtr revIDLastSave="1050" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C492CA09-B3B2-4BFE-A711-DB7712F0112A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
     <t>formState.passengers.ADT-0.name</t>
   </si>
   <si>
-    <t>Mahesh</t>
+    <t>Naik</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -1492,7 +1492,7 @@
     <t>formState.passengers.ADT-0.surname</t>
   </si>
   <si>
-    <t>Pillalamarri</t>
+    <t>Mude</t>
   </si>
   <si>
     <t>ContinueButton</t>
@@ -1576,7 +1576,7 @@
     <t>When I want to click on [$] in payment information page</t>
   </si>
   <si>
-    <t>//button[contains(text(),'No insurance')]</t>
+    <t>//input[@id='insurance-opt-out']/ancestor::label</t>
   </si>
   <si>
     <t>No Insurance Button</t>
@@ -1588,7 +1588,7 @@
     <t>When I want to enter CVV of the card as [$]</t>
   </si>
   <si>
-    <t>//input[contains(@id,'card-cvv') and @placeholder='CVV']</t>
+    <t>//span[contains(text(),'Security code')]/following-sibling::span/input[contains(@class,'input')]</t>
   </si>
   <si>
     <t>ConfirmPay</t>
@@ -1597,7 +1597,7 @@
     <t>When I want to select [$] in payment information page</t>
   </si>
   <si>
-    <t>//input[@type='checkbox' and @name='acceptPolicy']/following-sibling::label/span[@class='core-checkbox-label--icon']</t>
+    <t>//input[@id='termsAndConditions']/ancestor::label</t>
   </si>
   <si>
     <t>Confirm Pay Checkbox</t>
@@ -1606,7 +1606,7 @@
     <t>PayNow Button</t>
   </si>
   <si>
-    <t>//button[contains(@class,'core-btn-primary') and contains(text(),'Pay Now')]</t>
+    <t>//button[contains(@class,'pay-button') and contains(text(),'Pay now')]</t>
   </si>
   <si>
     <t>Pay Now Button</t>
@@ -6436,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_11e3\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1050" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C492CA09-B3B2-4BFE-A711-DB7712F0112A}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="11_F2725B3C7DCB2F010B2E0F4EE9F3B3FA416F6511" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89C21964-7DE3-46FA-9BF3-11BA2E55335E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Booking" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="617">
   <si>
     <t>Feature</t>
   </si>
@@ -1480,7 +1480,7 @@
     <t>formState.passengers.ADT-0.name</t>
   </si>
   <si>
-    <t>Naik</t>
+    <t>Mahesh</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -1492,7 +1492,7 @@
     <t>formState.passengers.ADT-0.surname</t>
   </si>
   <si>
-    <t>Mude</t>
+    <t>Pillalamarri</t>
   </si>
   <si>
     <t>ContinueButton</t>
@@ -1633,7 +1633,40 @@
     <t>//div[@class='booking-details__reservation-number']/span</t>
   </si>
   <si>
-    <t>GETTEXT</t>
+    <t>GETPNR</t>
+  </si>
+  <si>
+    <t>Journey Date</t>
+  </si>
+  <si>
+    <t>When I want to take a note of [$]</t>
+  </si>
+  <si>
+    <t>//div[@class='journey-details__date']/span</t>
+  </si>
+  <si>
+    <t>GETJOURNEYDATE</t>
+  </si>
+  <si>
+    <t>OriginStation</t>
+  </si>
+  <si>
+    <t>//div[@class='journey-details__airport-from']/span</t>
+  </si>
+  <si>
+    <t>GETORIGIN</t>
+  </si>
+  <si>
+    <t>Origin Station</t>
+  </si>
+  <si>
+    <t>//div[@class='journey-details__airport-to']/span</t>
+  </si>
+  <si>
+    <t>GETDESTINATION</t>
+  </si>
+  <si>
+    <t>Destination Station</t>
   </si>
   <si>
     <t>When I want to book a [$] ticket</t>
@@ -1666,12 +1699,18 @@
     <t>//div[@class='col-flight-search-right']/button/span[contains(text(),'Continue')]</t>
   </si>
   <si>
+    <t>1 day</t>
+  </si>
+  <si>
     <t>When I select depature date as [$]  from now</t>
   </si>
   <si>
     <t>dateInput0</t>
   </si>
   <si>
+    <t>2 day</t>
+  </si>
+  <si>
     <t>TermsOfUse</t>
   </si>
   <si>
@@ -1699,7 +1738,10 @@
     <t>When I select a flight with [$] fare</t>
   </si>
   <si>
-    <t>(//div[@class='price-wrapper'])[1]</t>
+    <t>//span[contains(text(),'Flight no.')]/parent::div</t>
+  </si>
+  <si>
+    <t>SELECTFLIGHT</t>
   </si>
   <si>
     <t>FareDetails</t>
@@ -1865,7 +1907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +1987,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1988,7 +2036,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2054,6 +2102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3036,10 +3085,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -3082,7 +3131,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>10</v>
@@ -3102,16 +3151,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -3128,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -3151,7 +3200,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>44</v>
@@ -3174,7 +3223,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -3191,19 +3240,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>485</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>12</v>
@@ -3217,16 +3266,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>52</v>
+        <v>550</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -3235,93 +3284,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E11" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>551</v>
-      </c>
-      <c r="B12" t="s">
-        <v>552</v>
-      </c>
       <c r="C12" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>564</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3329,22 +3374,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -3352,22 +3397,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F14" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -3375,22 +3420,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="B15" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C15" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F15" t="s">
-        <v>566</v>
+        <v>449</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -3398,22 +3443,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C16" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>570</v>
+      <c r="E16" t="s">
+        <v>579</v>
       </c>
       <c r="F16" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -3421,22 +3466,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -3444,22 +3489,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="C18" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F18" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -3467,33 +3512,56 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" t="s">
+        <v>594</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>197</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>197</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>197</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>197</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>197</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>197</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>locators</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>operation</formula1>
     </dataValidation>
   </dataValidations>
@@ -3557,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>12</v>
@@ -3603,7 +3671,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>12</v>
@@ -3701,7 +3769,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3732,10 +3800,10 @@
         <v>84</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>10</v>
@@ -3755,7 +3823,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>67</v>
@@ -3764,7 +3832,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>70</v>
@@ -3778,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C12" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -3801,10 +3869,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>68</v>
@@ -3867,19 +3935,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B16" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="C16" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -3939,50 +4007,50 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C3" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3990,42 +4058,42 @@
         <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C4" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -5547,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6434,10 +6502,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8445,7 +8513,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" ht="13.5">
       <c r="B98" t="s">
         <v>511</v>
       </c>
@@ -8455,7 +8523,7 @@
       <c r="D98" t="s">
         <v>44</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="37" t="s">
         <v>513</v>
       </c>
       <c r="F98" t="s">
@@ -8543,6 +8611,66 @@
       </c>
       <c r="G102" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" t="s">
+        <v>529</v>
+      </c>
+      <c r="C103" t="s">
+        <v>530</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>531</v>
+      </c>
+      <c r="F103" t="s">
+        <v>532</v>
+      </c>
+      <c r="G103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13.5">
+      <c r="B104" t="s">
+        <v>533</v>
+      </c>
+      <c r="C104" t="s">
+        <v>530</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>534</v>
+      </c>
+      <c r="F104" t="s">
+        <v>535</v>
+      </c>
+      <c r="G104" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>530</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>537</v>
+      </c>
+      <c r="F105" t="s">
+        <v>538</v>
+      </c>
+      <c r="G105" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
